--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.135072333333333</v>
+        <v>7.327452000000001</v>
       </c>
       <c r="H2">
-        <v>21.405217</v>
+        <v>21.982356</v>
       </c>
       <c r="I2">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="J2">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.76385566666667</v>
+        <v>10.32037433333333</v>
       </c>
       <c r="N2">
-        <v>35.291567</v>
+        <v>30.961123</v>
       </c>
       <c r="O2">
-        <v>0.3637526920523782</v>
+        <v>0.2929272563968436</v>
       </c>
       <c r="P2">
-        <v>0.3637526920523781</v>
+        <v>0.2929272563968437</v>
       </c>
       <c r="Q2">
-        <v>83.93596110055989</v>
+        <v>75.62204754953201</v>
       </c>
       <c r="R2">
-        <v>755.423649905039</v>
+        <v>680.5984279457881</v>
       </c>
       <c r="S2">
-        <v>0.08858043345446778</v>
+        <v>0.07020605005288864</v>
       </c>
       <c r="T2">
-        <v>0.08858043345446778</v>
+        <v>0.07020605005288866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.135072333333333</v>
+        <v>7.327452000000001</v>
       </c>
       <c r="H3">
-        <v>21.405217</v>
+        <v>21.982356</v>
       </c>
       <c r="I3">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="J3">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.732886000000001</v>
+        <v>9.732885999999999</v>
       </c>
       <c r="N3">
         <v>29.198658</v>
       </c>
       <c r="O3">
-        <v>0.3009526454809079</v>
+        <v>0.2762523432502674</v>
       </c>
       <c r="P3">
-        <v>0.3009526454809079</v>
+        <v>0.2762523432502675</v>
       </c>
       <c r="Q3">
-        <v>69.44484562208734</v>
+        <v>71.31725498647199</v>
       </c>
       <c r="R3">
-        <v>625.0036105987861</v>
+        <v>641.8552948782481</v>
       </c>
       <c r="S3">
-        <v>0.07328747351821367</v>
+        <v>0.06620956368492115</v>
       </c>
       <c r="T3">
-        <v>0.07328747351821367</v>
+        <v>0.06620956368492117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.135072333333333</v>
+        <v>7.327452000000001</v>
       </c>
       <c r="H4">
-        <v>21.405217</v>
+        <v>21.982356</v>
       </c>
       <c r="I4">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="J4">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.268219333333334</v>
+        <v>8.974543666666667</v>
       </c>
       <c r="N4">
-        <v>15.804658</v>
+        <v>26.923631</v>
       </c>
       <c r="O4">
-        <v>0.1628997345022157</v>
+        <v>0.2547280136147196</v>
       </c>
       <c r="P4">
-        <v>0.1628997345022156</v>
+        <v>0.2547280136147196</v>
       </c>
       <c r="Q4">
-        <v>37.58912601119845</v>
+        <v>65.76053793940402</v>
       </c>
       <c r="R4">
-        <v>338.302134100786</v>
+        <v>591.8448414546361</v>
       </c>
       <c r="S4">
-        <v>0.03966906474398323</v>
+        <v>0.06105081477798801</v>
       </c>
       <c r="T4">
-        <v>0.03966906474398323</v>
+        <v>0.06105081477798802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.135072333333333</v>
+        <v>7.327452000000001</v>
       </c>
       <c r="H5">
-        <v>21.405217</v>
+        <v>21.982356</v>
       </c>
       <c r="I5">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="J5">
-        <v>0.2435182897332695</v>
+        <v>0.2396705957528817</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.575296333333334</v>
+        <v>6.204063666666666</v>
       </c>
       <c r="N5">
-        <v>16.725889</v>
+        <v>18.612191</v>
       </c>
       <c r="O5">
-        <v>0.1723949279644982</v>
+        <v>0.1760923867381692</v>
       </c>
       <c r="P5">
-        <v>0.1723949279644982</v>
+        <v>0.1760923867381692</v>
       </c>
       <c r="Q5">
-        <v>39.78014261810145</v>
+        <v>45.45997872244401</v>
       </c>
       <c r="R5">
-        <v>358.021283562913</v>
+        <v>409.139808501996</v>
       </c>
       <c r="S5">
-        <v>0.04198131801660478</v>
+        <v>0.04220416723708385</v>
       </c>
       <c r="T5">
-        <v>0.04198131801660478</v>
+        <v>0.04220416723708386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.818214</v>
       </c>
       <c r="I6">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="J6">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76385566666667</v>
+        <v>10.32037433333333</v>
       </c>
       <c r="N6">
-        <v>35.291567</v>
+        <v>30.961123</v>
       </c>
       <c r="O6">
-        <v>0.3637526920523782</v>
+        <v>0.2929272563968436</v>
       </c>
       <c r="P6">
-        <v>0.3637526920523781</v>
+        <v>0.2929272563968437</v>
       </c>
       <c r="Q6">
-        <v>132.6108628001487</v>
+        <v>116.3388759215913</v>
       </c>
       <c r="R6">
-        <v>1193.497765201338</v>
+        <v>1047.049883294322</v>
       </c>
       <c r="S6">
-        <v>0.1399486889002784</v>
+        <v>0.1080067680090022</v>
       </c>
       <c r="T6">
-        <v>0.1399486889002784</v>
+        <v>0.1080067680090023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.818214</v>
       </c>
       <c r="I7">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="J7">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.732886000000001</v>
+        <v>9.732885999999999</v>
       </c>
       <c r="N7">
         <v>29.198658</v>
       </c>
       <c r="O7">
-        <v>0.3009526454809079</v>
+        <v>0.2762523432502674</v>
       </c>
       <c r="P7">
-        <v>0.3009526454809079</v>
+        <v>0.2762523432502675</v>
       </c>
       <c r="Q7">
         <v>109.716273861868</v>
       </c>
       <c r="R7">
-        <v>987.446464756812</v>
+        <v>987.4464647568119</v>
       </c>
       <c r="S7">
-        <v>0.1157872617202751</v>
+        <v>0.1018584720192545</v>
       </c>
       <c r="T7">
-        <v>0.1157872617202751</v>
+        <v>0.1018584720192545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.818214</v>
       </c>
       <c r="I8">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="J8">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.268219333333334</v>
+        <v>8.974543666666667</v>
       </c>
       <c r="N8">
-        <v>15.804658</v>
+        <v>26.923631</v>
       </c>
       <c r="O8">
-        <v>0.1628997345022157</v>
+        <v>0.2547280136147196</v>
       </c>
       <c r="P8">
-        <v>0.1628997345022156</v>
+        <v>0.2547280136147196</v>
       </c>
       <c r="Q8">
-        <v>59.38725627120133</v>
+        <v>101.1676794238927</v>
       </c>
       <c r="R8">
-        <v>534.485306440812</v>
+        <v>910.509114815034</v>
       </c>
       <c r="S8">
-        <v>0.06267336232526304</v>
+        <v>0.09392212186156752</v>
       </c>
       <c r="T8">
-        <v>0.06267336232526304</v>
+        <v>0.09392212186156755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>33.818214</v>
       </c>
       <c r="I9">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="J9">
-        <v>0.3847358162785133</v>
+        <v>0.3687153231745697</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.575296333333334</v>
+        <v>6.204063666666666</v>
       </c>
       <c r="N9">
-        <v>16.725889</v>
+        <v>18.612191</v>
       </c>
       <c r="O9">
-        <v>0.1723949279644982</v>
+        <v>0.1760923867381692</v>
       </c>
       <c r="P9">
-        <v>0.1723949279644982</v>
+        <v>0.1760923867381692</v>
       </c>
       <c r="Q9">
-        <v>62.84885483802734</v>
+        <v>69.93678424965266</v>
       </c>
       <c r="R9">
-        <v>565.6396935422461</v>
+        <v>629.4310582468739</v>
       </c>
       <c r="S9">
-        <v>0.0663265033326967</v>
+        <v>0.06492796128474537</v>
       </c>
       <c r="T9">
-        <v>0.0663265033326967</v>
+        <v>0.06492796128474539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.580172</v>
+        <v>6.386255666666667</v>
       </c>
       <c r="H10">
-        <v>13.740516</v>
+        <v>19.158767</v>
       </c>
       <c r="I10">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="J10">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.76385566666667</v>
+        <v>10.32037433333333</v>
       </c>
       <c r="N10">
-        <v>35.291567</v>
+        <v>30.961123</v>
       </c>
       <c r="O10">
-        <v>0.3637526920523782</v>
+        <v>0.2929272563968436</v>
       </c>
       <c r="P10">
-        <v>0.3637526920523781</v>
+        <v>0.2929272563968437</v>
       </c>
       <c r="Q10">
-        <v>53.880482336508</v>
+        <v>65.90854906837123</v>
       </c>
       <c r="R10">
-        <v>484.924341028572</v>
+        <v>593.1769416153411</v>
       </c>
       <c r="S10">
-        <v>0.05686187919365872</v>
+        <v>0.061188225454707</v>
       </c>
       <c r="T10">
-        <v>0.0568618791936587</v>
+        <v>0.061188225454707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.580172</v>
+        <v>6.386255666666667</v>
       </c>
       <c r="H11">
-        <v>13.740516</v>
+        <v>19.158767</v>
       </c>
       <c r="I11">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="J11">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.732886000000001</v>
+        <v>9.732885999999999</v>
       </c>
       <c r="N11">
         <v>29.198658</v>
       </c>
       <c r="O11">
-        <v>0.3009526454809079</v>
+        <v>0.2762523432502674</v>
       </c>
       <c r="P11">
-        <v>0.3009526454809079</v>
+        <v>0.2762523432502675</v>
       </c>
       <c r="Q11">
-        <v>44.57829193639201</v>
+        <v>62.15669837052067</v>
       </c>
       <c r="R11">
-        <v>401.204627427528</v>
+        <v>559.410285334686</v>
       </c>
       <c r="S11">
-        <v>0.04704496583597313</v>
+        <v>0.05770507964710724</v>
       </c>
       <c r="T11">
-        <v>0.04704496583597312</v>
+        <v>0.05770507964710725</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.580172</v>
+        <v>6.386255666666667</v>
       </c>
       <c r="H12">
-        <v>13.740516</v>
+        <v>19.158767</v>
       </c>
       <c r="I12">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="J12">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.268219333333334</v>
+        <v>8.974543666666667</v>
       </c>
       <c r="N12">
-        <v>15.804658</v>
+        <v>26.923631</v>
       </c>
       <c r="O12">
-        <v>0.1628997345022157</v>
+        <v>0.2547280136147196</v>
       </c>
       <c r="P12">
-        <v>0.1628997345022156</v>
+        <v>0.2547280136147196</v>
       </c>
       <c r="Q12">
-        <v>24.129350680392</v>
+        <v>57.31373034699745</v>
       </c>
       <c r="R12">
-        <v>217.164156123528</v>
+        <v>515.823573122977</v>
       </c>
       <c r="S12">
-        <v>0.02546451263819178</v>
+        <v>0.0532089615640666</v>
       </c>
       <c r="T12">
-        <v>0.02546451263819177</v>
+        <v>0.0532089615640666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.580172</v>
+        <v>6.386255666666667</v>
       </c>
       <c r="H13">
-        <v>13.740516</v>
+        <v>19.158767</v>
       </c>
       <c r="I13">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="J13">
-        <v>0.1563201604717497</v>
+        <v>0.2088853943035337</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.575296333333334</v>
+        <v>6.204063666666666</v>
       </c>
       <c r="N13">
-        <v>16.725889</v>
+        <v>18.612191</v>
       </c>
       <c r="O13">
-        <v>0.1723949279644982</v>
+        <v>0.1760923867381692</v>
       </c>
       <c r="P13">
-        <v>0.1723949279644982</v>
+        <v>0.1760923867381692</v>
       </c>
       <c r="Q13">
-        <v>25.535816157636</v>
+        <v>39.62073674761078</v>
       </c>
       <c r="R13">
-        <v>229.822345418724</v>
+        <v>356.586630728497</v>
       </c>
       <c r="S13">
-        <v>0.02694880280392609</v>
+        <v>0.03678312763765282</v>
       </c>
       <c r="T13">
-        <v>0.02694880280392608</v>
+        <v>0.03678312763765283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.311962</v>
+        <v>5.586566333333333</v>
       </c>
       <c r="H14">
-        <v>18.935886</v>
+        <v>16.759699</v>
       </c>
       <c r="I14">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="J14">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.76385566666667</v>
+        <v>10.32037433333333</v>
       </c>
       <c r="N14">
-        <v>35.291567</v>
+        <v>30.961123</v>
       </c>
       <c r="O14">
-        <v>0.3637526920523782</v>
+        <v>0.2929272563968436</v>
       </c>
       <c r="P14">
-        <v>0.3637526920523781</v>
+        <v>0.2929272563968437</v>
       </c>
       <c r="Q14">
-        <v>74.25300994148466</v>
+        <v>57.65545579799744</v>
       </c>
       <c r="R14">
-        <v>668.277089473362</v>
+        <v>518.8991021819769</v>
       </c>
       <c r="S14">
-        <v>0.07836169050397332</v>
+        <v>0.05352621288024575</v>
       </c>
       <c r="T14">
-        <v>0.07836169050397331</v>
+        <v>0.05352621288024575</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.311962</v>
+        <v>5.586566333333333</v>
       </c>
       <c r="H15">
-        <v>18.935886</v>
+        <v>16.759699</v>
       </c>
       <c r="I15">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="J15">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.732886000000001</v>
+        <v>9.732885999999999</v>
       </c>
       <c r="N15">
         <v>29.198658</v>
       </c>
       <c r="O15">
-        <v>0.3009526454809079</v>
+        <v>0.2762523432502674</v>
       </c>
       <c r="P15">
-        <v>0.3009526454809079</v>
+        <v>0.2762523432502675</v>
       </c>
       <c r="Q15">
-        <v>61.433606582332</v>
+        <v>54.37341325377133</v>
       </c>
       <c r="R15">
-        <v>552.902459240988</v>
+        <v>489.3607192839419</v>
       </c>
       <c r="S15">
-        <v>0.06483294440644602</v>
+        <v>0.05047922789898449</v>
       </c>
       <c r="T15">
-        <v>0.06483294440644601</v>
+        <v>0.0504792278989845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.311962</v>
+        <v>5.586566333333333</v>
       </c>
       <c r="H16">
-        <v>18.935886</v>
+        <v>16.759699</v>
       </c>
       <c r="I16">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="J16">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.268219333333334</v>
+        <v>8.974543666666667</v>
       </c>
       <c r="N16">
-        <v>15.804658</v>
+        <v>26.923631</v>
       </c>
       <c r="O16">
-        <v>0.1628997345022157</v>
+        <v>0.2547280136147196</v>
       </c>
       <c r="P16">
-        <v>0.1628997345022156</v>
+        <v>0.2547280136147196</v>
       </c>
       <c r="Q16">
-        <v>33.25280023966533</v>
+        <v>50.13688350522989</v>
       </c>
       <c r="R16">
-        <v>299.275202156988</v>
+        <v>451.2319515470689</v>
       </c>
       <c r="S16">
-        <v>0.03509279479477763</v>
+        <v>0.04654611541109745</v>
       </c>
       <c r="T16">
-        <v>0.03509279479477763</v>
+        <v>0.04654611541109745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.311962</v>
+        <v>5.586566333333333</v>
       </c>
       <c r="H17">
-        <v>18.935886</v>
+        <v>16.759699</v>
       </c>
       <c r="I17">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="J17">
-        <v>0.2154257335164676</v>
+        <v>0.1827286867690149</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.575296333333334</v>
+        <v>6.204063666666666</v>
       </c>
       <c r="N17">
-        <v>16.725889</v>
+        <v>18.612191</v>
       </c>
       <c r="O17">
-        <v>0.1723949279644982</v>
+        <v>0.1760923867381692</v>
       </c>
       <c r="P17">
-        <v>0.1723949279644982</v>
+        <v>0.1760923867381692</v>
       </c>
       <c r="Q17">
-        <v>35.19105859473934</v>
+        <v>34.65941321005655</v>
       </c>
       <c r="R17">
-        <v>316.719527352654</v>
+        <v>311.9347188905089</v>
       </c>
       <c r="S17">
-        <v>0.03713830381127061</v>
+        <v>0.03217713057868715</v>
       </c>
       <c r="T17">
-        <v>0.0371383038112706</v>
+        <v>0.03217713057868715</v>
       </c>
     </row>
   </sheetData>
